--- a/Dataset/15/나의 해방일지_학습 (15)/해방일지15.xlsx
+++ b/Dataset/15/나의 해방일지_학습 (15)/해방일지15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DooDoo\Desktop\05.25 학습\나의 해방일지_학습 (15)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\나의 해방일지_학습 (15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F6F001-C093-4DF4-B9FF-1293FF96F54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B4339F-5BC5-4038-AFCE-346C31E126F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2914" yWindow="2914" windowWidth="24686" windowHeight="13055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="1633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="1634">
   <si>
     <t>Time</t>
   </si>
@@ -4936,6 +4936,9 @@
   <si>
     <t>fixed-label</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmoid_label</t>
   </si>
 </sst>
 </file>
@@ -5307,20 +5310,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E821"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="E832" sqref="E832"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="44.25" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="44.2109375" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5334,10 +5336,10 @@
         <v>1632</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5352,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5370,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5385,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -5400,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5415,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5433,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5448,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5466,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5481,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5499,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -5514,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -5532,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -5550,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -5565,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -5580,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5595,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -5610,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -5625,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -5640,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -5655,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -5670,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -5685,7 +5687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -5703,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -5718,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -5736,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -5751,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -5766,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -5784,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -5799,7 +5801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -5814,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -5829,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -5844,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -5862,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -5877,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -5892,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -5910,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -5925,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -5943,7 +5945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -5958,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -5973,7 +5975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -5988,7 +5990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -6003,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -6018,7 +6020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -6033,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -6048,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -6063,7 +6065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -6078,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -6093,7 +6095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -6108,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -6123,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -6138,7 +6140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -6153,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -6168,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -6183,7 +6185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -6198,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -6213,7 +6215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -6228,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -6243,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -6258,7 +6260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -6276,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -6291,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -6306,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -6324,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -6342,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -6357,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -6372,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -6390,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -6405,7 +6407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -6420,7 +6422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -6438,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -6453,7 +6455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -6468,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -6483,7 +6485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -6498,7 +6500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -6513,7 +6515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -6528,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -6543,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -6558,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -6573,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -6588,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -6603,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -6618,7 +6620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -6633,7 +6635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -6648,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>171</v>
       </c>
@@ -6666,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -6681,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>175</v>
       </c>
@@ -6699,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>177</v>
       </c>
@@ -6717,7 +6719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>179</v>
       </c>
@@ -6735,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>181</v>
       </c>
@@ -6750,7 +6752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>183</v>
       </c>
@@ -6765,7 +6767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>185</v>
       </c>
@@ -6780,7 +6782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>187</v>
       </c>
@@ -6795,7 +6797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>189</v>
       </c>
@@ -6810,7 +6812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -6825,7 +6827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>193</v>
       </c>
@@ -6840,7 +6842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>195</v>
       </c>
@@ -6855,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>197</v>
       </c>
@@ -6870,7 +6872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>199</v>
       </c>
@@ -6885,7 +6887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>201</v>
       </c>
@@ -6900,7 +6902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>203</v>
       </c>
@@ -6915,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>205</v>
       </c>
@@ -6930,7 +6932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>207</v>
       </c>
@@ -6945,7 +6947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>209</v>
       </c>
@@ -6960,7 +6962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -6975,7 +6977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>213</v>
       </c>
@@ -6990,7 +6992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>215</v>
       </c>
@@ -7005,7 +7007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>217</v>
       </c>
@@ -7020,7 +7022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>219</v>
       </c>
@@ -7035,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>221</v>
       </c>
@@ -7050,7 +7052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>223</v>
       </c>
@@ -7065,7 +7067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>225</v>
       </c>
@@ -7080,7 +7082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>227</v>
       </c>
@@ -7095,7 +7097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>229</v>
       </c>
@@ -7110,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>231</v>
       </c>
@@ -7125,7 +7127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>233</v>
       </c>
@@ -7140,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>235</v>
       </c>
@@ -7155,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>237</v>
       </c>
@@ -7170,7 +7172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>239</v>
       </c>
@@ -7185,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>241</v>
       </c>
@@ -7200,7 +7202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>243</v>
       </c>
@@ -7215,7 +7217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>245</v>
       </c>
@@ -7230,7 +7232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -7245,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>249</v>
       </c>
@@ -7260,7 +7262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>251</v>
       </c>
@@ -7275,7 +7277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>253</v>
       </c>
@@ -7290,7 +7292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>254</v>
       </c>
@@ -7305,7 +7307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>256</v>
       </c>
@@ -7320,7 +7322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>258</v>
       </c>
@@ -7335,7 +7337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>260</v>
       </c>
@@ -7350,7 +7352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>262</v>
       </c>
@@ -7365,7 +7367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>264</v>
       </c>
@@ -7380,7 +7382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>266</v>
       </c>
@@ -7395,7 +7397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>268</v>
       </c>
@@ -7410,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>270</v>
       </c>
@@ -7425,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -7440,7 +7442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>274</v>
       </c>
@@ -7455,7 +7457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>276</v>
       </c>
@@ -7473,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>278</v>
       </c>
@@ -7488,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>280</v>
       </c>
@@ -7503,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>282</v>
       </c>
@@ -7518,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>284</v>
       </c>
@@ -7533,7 +7535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>286</v>
       </c>
@@ -7548,7 +7550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>288</v>
       </c>
@@ -7566,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>290</v>
       </c>
@@ -7581,7 +7583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>292</v>
       </c>
@@ -7596,7 +7598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>294</v>
       </c>
@@ -7611,7 +7613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>296</v>
       </c>
@@ -7626,7 +7628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>298</v>
       </c>
@@ -7641,7 +7643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>300</v>
       </c>
@@ -7656,7 +7658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>302</v>
       </c>
@@ -7671,7 +7673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>304</v>
       </c>
@@ -7686,7 +7688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>306</v>
       </c>
@@ -7701,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>308</v>
       </c>
@@ -7719,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>309</v>
       </c>
@@ -7734,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>311</v>
       </c>
@@ -7749,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>313</v>
       </c>
@@ -7767,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>315</v>
       </c>
@@ -7782,7 +7784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>317</v>
       </c>
@@ -7797,7 +7799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>319</v>
       </c>
@@ -7815,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>320</v>
       </c>
@@ -7830,7 +7832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>322</v>
       </c>
@@ -7845,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>324</v>
       </c>
@@ -7863,7 +7865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>326</v>
       </c>
@@ -7878,7 +7880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>328</v>
       </c>
@@ -7893,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>330</v>
       </c>
@@ -7908,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>332</v>
       </c>
@@ -7926,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>334</v>
       </c>
@@ -7941,7 +7943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>336</v>
       </c>
@@ -7956,7 +7958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>338</v>
       </c>
@@ -7974,7 +7976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>340</v>
       </c>
@@ -7989,7 +7991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>342</v>
       </c>
@@ -8004,7 +8006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>344</v>
       </c>
@@ -8019,7 +8021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>346</v>
       </c>
@@ -8034,7 +8036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>348</v>
       </c>
@@ -8049,7 +8051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>350</v>
       </c>
@@ -8064,7 +8066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>352</v>
       </c>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>354</v>
       </c>
@@ -8094,7 +8096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>356</v>
       </c>
@@ -8109,7 +8111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>358</v>
       </c>
@@ -8124,7 +8126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>360</v>
       </c>
@@ -8139,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>362</v>
       </c>
@@ -8154,7 +8156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>364</v>
       </c>
@@ -8169,7 +8171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>366</v>
       </c>
@@ -8184,7 +8186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>368</v>
       </c>
@@ -8199,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>370</v>
       </c>
@@ -8214,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>372</v>
       </c>
@@ -8229,7 +8231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>374</v>
       </c>
@@ -8244,7 +8246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>376</v>
       </c>
@@ -8259,7 +8261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>378</v>
       </c>
@@ -8274,7 +8276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>380</v>
       </c>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>382</v>
       </c>
@@ -8304,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>384</v>
       </c>
@@ -8319,7 +8321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>386</v>
       </c>
@@ -8334,7 +8336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>388</v>
       </c>
@@ -8349,7 +8351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>390</v>
       </c>
@@ -8364,7 +8366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>392</v>
       </c>
@@ -8379,7 +8381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>394</v>
       </c>
@@ -8394,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>396</v>
       </c>
@@ -8409,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>398</v>
       </c>
@@ -8424,7 +8426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>400</v>
       </c>
@@ -8439,7 +8441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>402</v>
       </c>
@@ -8454,7 +8456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>404</v>
       </c>
@@ -8469,7 +8471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>406</v>
       </c>
@@ -8484,7 +8486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>408</v>
       </c>
@@ -8499,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>410</v>
       </c>
@@ -8514,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>412</v>
       </c>
@@ -8529,7 +8531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>414</v>
       </c>
@@ -8547,7 +8549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>416</v>
       </c>
@@ -8562,7 +8564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>418</v>
       </c>
@@ -8580,7 +8582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>420</v>
       </c>
@@ -8595,7 +8597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>422</v>
       </c>
@@ -8610,7 +8612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -8625,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>426</v>
       </c>
@@ -8640,7 +8642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>428</v>
       </c>
@@ -8655,7 +8657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>430</v>
       </c>
@@ -8670,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>432</v>
       </c>
@@ -8685,7 +8687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>434</v>
       </c>
@@ -8703,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>436</v>
       </c>
@@ -8721,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>438</v>
       </c>
@@ -8736,7 +8738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>440</v>
       </c>
@@ -8754,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>442</v>
       </c>
@@ -8769,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>444</v>
       </c>
@@ -8787,7 +8789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>446</v>
       </c>
@@ -8802,7 +8804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>448</v>
       </c>
@@ -8817,7 +8819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>450</v>
       </c>
@@ -8832,7 +8834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>452</v>
       </c>
@@ -8847,7 +8849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>454</v>
       </c>
@@ -8865,7 +8867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>456</v>
       </c>
@@ -8880,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>458</v>
       </c>
@@ -8898,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>460</v>
       </c>
@@ -8913,7 +8915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>462</v>
       </c>
@@ -8928,7 +8930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>464</v>
       </c>
@@ -8943,7 +8945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>466</v>
       </c>
@@ -8958,7 +8960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>468</v>
       </c>
@@ -8973,7 +8975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>470</v>
       </c>
@@ -8988,7 +8990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>472</v>
       </c>
@@ -9003,7 +9005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>474</v>
       </c>
@@ -9018,7 +9020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>476</v>
       </c>
@@ -9033,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>478</v>
       </c>
@@ -9051,7 +9053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>480</v>
       </c>
@@ -9069,7 +9071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>482</v>
       </c>
@@ -9084,7 +9086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>484</v>
       </c>
@@ -9099,7 +9101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>486</v>
       </c>
@@ -9117,7 +9119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>488</v>
       </c>
@@ -9132,7 +9134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>490</v>
       </c>
@@ -9147,7 +9149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>492</v>
       </c>
@@ -9162,7 +9164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>494</v>
       </c>
@@ -9177,7 +9179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>496</v>
       </c>
@@ -9192,7 +9194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>498</v>
       </c>
@@ -9207,7 +9209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>500</v>
       </c>
@@ -9222,7 +9224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>502</v>
       </c>
@@ -9237,7 +9239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>504</v>
       </c>
@@ -9252,7 +9254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>506</v>
       </c>
@@ -9267,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>508</v>
       </c>
@@ -9282,7 +9284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>510</v>
       </c>
@@ -9297,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>512</v>
       </c>
@@ -9312,7 +9314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>514</v>
       </c>
@@ -9327,7 +9329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>516</v>
       </c>
@@ -9342,7 +9344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>518</v>
       </c>
@@ -9360,7 +9362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>520</v>
       </c>
@@ -9375,7 +9377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>522</v>
       </c>
@@ -9390,7 +9392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>524</v>
       </c>
@@ -9405,7 +9407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>526</v>
       </c>
@@ -9420,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>528</v>
       </c>
@@ -9435,7 +9437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>530</v>
       </c>
@@ -9453,7 +9455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>532</v>
       </c>
@@ -9468,7 +9470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>534</v>
       </c>
@@ -9486,7 +9488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>536</v>
       </c>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>538</v>
       </c>
@@ -9516,7 +9518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>540</v>
       </c>
@@ -9531,7 +9533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>542</v>
       </c>
@@ -9546,7 +9548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>544</v>
       </c>
@@ -9561,7 +9563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>546</v>
       </c>
@@ -9579,7 +9581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>548</v>
       </c>
@@ -9594,7 +9596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>550</v>
       </c>
@@ -9609,7 +9611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>552</v>
       </c>
@@ -9627,7 +9629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>554</v>
       </c>
@@ -9642,7 +9644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>556</v>
       </c>
@@ -9660,7 +9662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>558</v>
       </c>
@@ -9675,7 +9677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>560</v>
       </c>
@@ -9690,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>562</v>
       </c>
@@ -9705,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>564</v>
       </c>
@@ -9720,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>566</v>
       </c>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>568</v>
       </c>
@@ -9750,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>570</v>
       </c>
@@ -9765,7 +9767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>572</v>
       </c>
@@ -9780,7 +9782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>574</v>
       </c>
@@ -9795,7 +9797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>576</v>
       </c>
@@ -9810,7 +9812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>578</v>
       </c>
@@ -9825,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>580</v>
       </c>
@@ -9840,7 +9842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>582</v>
       </c>
@@ -9855,7 +9857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>584</v>
       </c>
@@ -9870,7 +9872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>586</v>
       </c>
@@ -9885,7 +9887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>588</v>
       </c>
@@ -9900,7 +9902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>590</v>
       </c>
@@ -9918,7 +9920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>592</v>
       </c>
@@ -9933,7 +9935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>594</v>
       </c>
@@ -9948,7 +9950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>596</v>
       </c>
@@ -9966,7 +9968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>598</v>
       </c>
@@ -9981,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>600</v>
       </c>
@@ -9996,7 +9998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>602</v>
       </c>
@@ -10011,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>604</v>
       </c>
@@ -10026,7 +10028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>606</v>
       </c>
@@ -10044,7 +10046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>608</v>
       </c>
@@ -10059,7 +10061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>610</v>
       </c>
@@ -10074,7 +10076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>612</v>
       </c>
@@ -10089,7 +10091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>614</v>
       </c>
@@ -10107,7 +10109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>616</v>
       </c>
@@ -10122,7 +10124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>618</v>
       </c>
@@ -10137,7 +10139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>620</v>
       </c>
@@ -10152,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>622</v>
       </c>
@@ -10167,7 +10169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>624</v>
       </c>
@@ -10182,7 +10184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>626</v>
       </c>
@@ -10197,7 +10199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>628</v>
       </c>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>630</v>
       </c>
@@ -10227,7 +10229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>632</v>
       </c>
@@ -10242,7 +10244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>634</v>
       </c>
@@ -10257,7 +10259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>636</v>
       </c>
@@ -10272,7 +10274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>638</v>
       </c>
@@ -10287,7 +10289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>640</v>
       </c>
@@ -10302,7 +10304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>642</v>
       </c>
@@ -10317,7 +10319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>644</v>
       </c>
@@ -10332,7 +10334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>646</v>
       </c>
@@ -10347,7 +10349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>648</v>
       </c>
@@ -10362,7 +10364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>650</v>
       </c>
@@ -10377,7 +10379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>652</v>
       </c>
@@ -10392,7 +10394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>654</v>
       </c>
@@ -10407,7 +10409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>656</v>
       </c>
@@ -10422,7 +10424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>658</v>
       </c>
@@ -10437,7 +10439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>660</v>
       </c>
@@ -10452,7 +10454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>662</v>
       </c>
@@ -10467,7 +10469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>664</v>
       </c>
@@ -10482,7 +10484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>666</v>
       </c>
@@ -10497,7 +10499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>668</v>
       </c>
@@ -10512,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>670</v>
       </c>
@@ -10527,7 +10529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>672</v>
       </c>
@@ -10542,7 +10544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>674</v>
       </c>
@@ -10557,7 +10559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>676</v>
       </c>
@@ -10572,7 +10574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>678</v>
       </c>
@@ -10587,7 +10589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>680</v>
       </c>
@@ -10602,7 +10604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>682</v>
       </c>
@@ -10617,7 +10619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>684</v>
       </c>
@@ -10635,7 +10637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>686</v>
       </c>
@@ -10650,7 +10652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>688</v>
       </c>
@@ -10665,7 +10667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>690</v>
       </c>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>692</v>
       </c>
@@ -10698,7 +10700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>694</v>
       </c>
@@ -10713,7 +10715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>696</v>
       </c>
@@ -10728,7 +10730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>698</v>
       </c>
@@ -10746,7 +10748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>700</v>
       </c>
@@ -10761,7 +10763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>702</v>
       </c>
@@ -10776,7 +10778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>704</v>
       </c>
@@ -10791,7 +10793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>706</v>
       </c>
@@ -10806,7 +10808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>708</v>
       </c>
@@ -10821,7 +10823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>710</v>
       </c>
@@ -10836,7 +10838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>712</v>
       </c>
@@ -10851,7 +10853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>714</v>
       </c>
@@ -10866,7 +10868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>716</v>
       </c>
@@ -10881,7 +10883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>718</v>
       </c>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>720</v>
       </c>
@@ -10911,7 +10913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>722</v>
       </c>
@@ -10926,7 +10928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>724</v>
       </c>
@@ -10941,7 +10943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>726</v>
       </c>
@@ -10956,7 +10958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>728</v>
       </c>
@@ -10971,7 +10973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>730</v>
       </c>
@@ -10986,7 +10988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>732</v>
       </c>
@@ -11001,7 +11003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>734</v>
       </c>
@@ -11016,7 +11018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>736</v>
       </c>
@@ -11031,7 +11033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>738</v>
       </c>
@@ -11046,7 +11048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>740</v>
       </c>
@@ -11061,7 +11063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>742</v>
       </c>
@@ -11076,7 +11078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>744</v>
       </c>
@@ -11091,7 +11093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>746</v>
       </c>
@@ -11106,7 +11108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>748</v>
       </c>
@@ -11121,7 +11123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>750</v>
       </c>
@@ -11136,7 +11138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>752</v>
       </c>
@@ -11151,7 +11153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>754</v>
       </c>
@@ -11169,7 +11171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>756</v>
       </c>
@@ -11184,7 +11186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>758</v>
       </c>
@@ -11199,7 +11201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>760</v>
       </c>
@@ -11214,7 +11216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>762</v>
       </c>
@@ -11229,7 +11231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>764</v>
       </c>
@@ -11244,7 +11246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
         <v>766</v>
       </c>
@@ -11259,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
         <v>768</v>
       </c>
@@ -11274,7 +11276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
         <v>770</v>
       </c>
@@ -11292,7 +11294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
         <v>772</v>
       </c>
@@ -11307,7 +11309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
         <v>774</v>
       </c>
@@ -11322,7 +11324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
         <v>776</v>
       </c>
@@ -11337,7 +11339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
         <v>778</v>
       </c>
@@ -11355,7 +11357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
         <v>780</v>
       </c>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
         <v>782</v>
       </c>
@@ -11385,7 +11387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
         <v>784</v>
       </c>
@@ -11400,7 +11402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
         <v>786</v>
       </c>
@@ -11415,7 +11417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
         <v>788</v>
       </c>
@@ -11430,7 +11432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
         <v>790</v>
       </c>
@@ -11445,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>792</v>
       </c>
@@ -11460,7 +11462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>794</v>
       </c>
@@ -11475,7 +11477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>796</v>
       </c>
@@ -11490,7 +11492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>798</v>
       </c>
@@ -11508,7 +11510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>800</v>
       </c>
@@ -11523,7 +11525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
         <v>802</v>
       </c>
@@ -11538,7 +11540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
         <v>804</v>
       </c>
@@ -11553,7 +11555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
         <v>806</v>
       </c>
@@ -11568,7 +11570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
         <v>808</v>
       </c>
@@ -11583,7 +11585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" t="s">
         <v>810</v>
       </c>
@@ -11598,7 +11600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" t="s">
         <v>812</v>
       </c>
@@ -11613,7 +11615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" t="s">
         <v>814</v>
       </c>
@@ -11628,7 +11630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" t="s">
         <v>816</v>
       </c>
@@ -11643,7 +11645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" t="s">
         <v>818</v>
       </c>
@@ -11658,7 +11660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" t="s">
         <v>820</v>
       </c>
@@ -11673,7 +11675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" t="s">
         <v>822</v>
       </c>
@@ -11688,7 +11690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" t="s">
         <v>824</v>
       </c>
@@ -11703,7 +11705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" t="s">
         <v>826</v>
       </c>
@@ -11718,7 +11720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" t="s">
         <v>828</v>
       </c>
@@ -11733,7 +11735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" t="s">
         <v>830</v>
       </c>
@@ -11748,7 +11750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" t="s">
         <v>832</v>
       </c>
@@ -11763,7 +11765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
         <v>834</v>
       </c>
@@ -11778,7 +11780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
         <v>836</v>
       </c>
@@ -11793,7 +11795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" t="s">
         <v>838</v>
       </c>
@@ -11811,7 +11813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
         <v>840</v>
       </c>
@@ -11826,7 +11828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
         <v>842</v>
       </c>
@@ -11841,7 +11843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
         <v>844</v>
       </c>
@@ -11856,7 +11858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
         <v>846</v>
       </c>
@@ -11874,7 +11876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" t="s">
         <v>848</v>
       </c>
@@ -11892,7 +11894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" t="s">
         <v>850</v>
       </c>
@@ -11910,7 +11912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" t="s">
         <v>852</v>
       </c>
@@ -11925,7 +11927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" t="s">
         <v>854</v>
       </c>
@@ -11943,7 +11945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" t="s">
         <v>856</v>
       </c>
@@ -11958,7 +11960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" t="s">
         <v>858</v>
       </c>
@@ -11976,7 +11978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" t="s">
         <v>860</v>
       </c>
@@ -11991,7 +11993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" t="s">
         <v>862</v>
       </c>
@@ -12009,7 +12011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" t="s">
         <v>864</v>
       </c>
@@ -12024,7 +12026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" t="s">
         <v>866</v>
       </c>
@@ -12042,7 +12044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" t="s">
         <v>868</v>
       </c>
@@ -12060,7 +12062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" t="s">
         <v>870</v>
       </c>
@@ -12075,7 +12077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" t="s">
         <v>872</v>
       </c>
@@ -12090,7 +12092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" t="s">
         <v>874</v>
       </c>
@@ -12105,7 +12107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" t="s">
         <v>876</v>
       </c>
@@ -12120,7 +12122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" t="s">
         <v>878</v>
       </c>
@@ -12135,7 +12137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" t="s">
         <v>880</v>
       </c>
@@ -12150,7 +12152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" t="s">
         <v>882</v>
       </c>
@@ -12165,7 +12167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" t="s">
         <v>884</v>
       </c>
@@ -12183,7 +12185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" t="s">
         <v>886</v>
       </c>
@@ -12198,7 +12200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" t="s">
         <v>888</v>
       </c>
@@ -12213,7 +12215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" t="s">
         <v>890</v>
       </c>
@@ -12228,7 +12230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" t="s">
         <v>892</v>
       </c>
@@ -12243,7 +12245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" t="s">
         <v>894</v>
       </c>
@@ -12258,7 +12260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" t="s">
         <v>896</v>
       </c>
@@ -12273,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" t="s">
         <v>898</v>
       </c>
@@ -12288,7 +12290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" t="s">
         <v>900</v>
       </c>
@@ -12303,7 +12305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" t="s">
         <v>902</v>
       </c>
@@ -12318,7 +12320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" t="s">
         <v>904</v>
       </c>
@@ -12333,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" t="s">
         <v>906</v>
       </c>
@@ -12348,7 +12350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" t="s">
         <v>908</v>
       </c>
@@ -12363,7 +12365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" t="s">
         <v>910</v>
       </c>
@@ -12378,7 +12380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" t="s">
         <v>912</v>
       </c>
@@ -12393,7 +12395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" t="s">
         <v>914</v>
       </c>
@@ -12411,7 +12413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" t="s">
         <v>916</v>
       </c>
@@ -12429,7 +12431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" t="s">
         <v>918</v>
       </c>
@@ -12444,7 +12446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" t="s">
         <v>920</v>
       </c>
@@ -12462,7 +12464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" t="s">
         <v>922</v>
       </c>
@@ -12477,7 +12479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" t="s">
         <v>924</v>
       </c>
@@ -12495,7 +12497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" t="s">
         <v>926</v>
       </c>
@@ -12513,7 +12515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" t="s">
         <v>928</v>
       </c>
@@ -12528,7 +12530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" t="s">
         <v>930</v>
       </c>
@@ -12543,7 +12545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" t="s">
         <v>932</v>
       </c>
@@ -12558,7 +12560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" t="s">
         <v>934</v>
       </c>
@@ -12573,7 +12575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" t="s">
         <v>936</v>
       </c>
@@ -12588,7 +12590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" t="s">
         <v>938</v>
       </c>
@@ -12603,7 +12605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" t="s">
         <v>940</v>
       </c>
@@ -12618,7 +12620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" t="s">
         <v>942</v>
       </c>
@@ -12633,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" t="s">
         <v>944</v>
       </c>
@@ -12648,7 +12650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" t="s">
         <v>946</v>
       </c>
@@ -12663,7 +12665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" t="s">
         <v>948</v>
       </c>
@@ -12678,7 +12680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" t="s">
         <v>950</v>
       </c>
@@ -12693,7 +12695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" t="s">
         <v>952</v>
       </c>
@@ -12708,7 +12710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" t="s">
         <v>954</v>
       </c>
@@ -12723,7 +12725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" t="s">
         <v>956</v>
       </c>
@@ -12738,7 +12740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" t="s">
         <v>958</v>
       </c>
@@ -12753,7 +12755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" t="s">
         <v>960</v>
       </c>
@@ -12768,7 +12770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" t="s">
         <v>962</v>
       </c>
@@ -12783,7 +12785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" t="s">
         <v>964</v>
       </c>
@@ -12798,7 +12800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" t="s">
         <v>966</v>
       </c>
@@ -12813,7 +12815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" t="s">
         <v>968</v>
       </c>
@@ -12828,7 +12830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" t="s">
         <v>970</v>
       </c>
@@ -12843,7 +12845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" t="s">
         <v>972</v>
       </c>
@@ -12858,7 +12860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" t="s">
         <v>974</v>
       </c>
@@ -12873,7 +12875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" t="s">
         <v>976</v>
       </c>
@@ -12888,7 +12890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" t="s">
         <v>978</v>
       </c>
@@ -12903,7 +12905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" t="s">
         <v>980</v>
       </c>
@@ -12918,7 +12920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" t="s">
         <v>982</v>
       </c>
@@ -12933,7 +12935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" t="s">
         <v>984</v>
       </c>
@@ -12951,7 +12953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" t="s">
         <v>986</v>
       </c>
@@ -12969,7 +12971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" t="s">
         <v>988</v>
       </c>
@@ -12987,7 +12989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" t="s">
         <v>990</v>
       </c>
@@ -13002,7 +13004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" t="s">
         <v>992</v>
       </c>
@@ -13017,7 +13019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" t="s">
         <v>994</v>
       </c>
@@ -13035,7 +13037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" t="s">
         <v>996</v>
       </c>
@@ -13050,7 +13052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" t="s">
         <v>998</v>
       </c>
@@ -13065,7 +13067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" t="s">
         <v>1000</v>
       </c>
@@ -13080,7 +13082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" t="s">
         <v>1002</v>
       </c>
@@ -13095,7 +13097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" t="s">
         <v>1004</v>
       </c>
@@ -13110,7 +13112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" t="s">
         <v>1006</v>
       </c>
@@ -13125,7 +13127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" t="s">
         <v>1008</v>
       </c>
@@ -13140,7 +13142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" t="s">
         <v>1010</v>
       </c>
@@ -13155,7 +13157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" t="s">
         <v>1012</v>
       </c>
@@ -13170,7 +13172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" t="s">
         <v>1014</v>
       </c>
@@ -13185,7 +13187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" t="s">
         <v>1016</v>
       </c>
@@ -13200,7 +13202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" t="s">
         <v>1018</v>
       </c>
@@ -13215,7 +13217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" t="s">
         <v>1020</v>
       </c>
@@ -13230,7 +13232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" t="s">
         <v>1022</v>
       </c>
@@ -13245,7 +13247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" t="s">
         <v>1024</v>
       </c>
@@ -13260,7 +13262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" t="s">
         <v>1026</v>
       </c>
@@ -13275,7 +13277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" t="s">
         <v>1028</v>
       </c>
@@ -13290,7 +13292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" t="s">
         <v>1030</v>
       </c>
@@ -13305,7 +13307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" t="s">
         <v>1032</v>
       </c>
@@ -13320,7 +13322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" t="s">
         <v>1034</v>
       </c>
@@ -13335,7 +13337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" t="s">
         <v>1036</v>
       </c>
@@ -13350,7 +13352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" t="s">
         <v>1038</v>
       </c>
@@ -13365,7 +13367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" t="s">
         <v>1040</v>
       </c>
@@ -13383,7 +13385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" t="s">
         <v>1042</v>
       </c>
@@ -13398,7 +13400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" t="s">
         <v>1044</v>
       </c>
@@ -13413,7 +13415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" t="s">
         <v>1046</v>
       </c>
@@ -13428,7 +13430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" t="s">
         <v>1048</v>
       </c>
@@ -13443,7 +13445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" t="s">
         <v>1050</v>
       </c>
@@ -13458,7 +13460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" t="s">
         <v>1052</v>
       </c>
@@ -13473,7 +13475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" t="s">
         <v>1054</v>
       </c>
@@ -13488,7 +13490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" t="s">
         <v>1056</v>
       </c>
@@ -13503,7 +13505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" t="s">
         <v>1058</v>
       </c>
@@ -13518,7 +13520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" t="s">
         <v>1060</v>
       </c>
@@ -13533,7 +13535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" t="s">
         <v>1062</v>
       </c>
@@ -13548,7 +13550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" t="s">
         <v>1064</v>
       </c>
@@ -13566,7 +13568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" t="s">
         <v>1066</v>
       </c>
@@ -13581,7 +13583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" t="s">
         <v>1068</v>
       </c>
@@ -13596,7 +13598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" t="s">
         <v>1070</v>
       </c>
@@ -13614,7 +13616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" t="s">
         <v>1072</v>
       </c>
@@ -13629,7 +13631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" t="s">
         <v>1074</v>
       </c>
@@ -13644,7 +13646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" t="s">
         <v>1076</v>
       </c>
@@ -13659,7 +13661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" t="s">
         <v>1078</v>
       </c>
@@ -13674,7 +13676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" t="s">
         <v>1080</v>
       </c>
@@ -13689,7 +13691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" t="s">
         <v>1082</v>
       </c>
@@ -13704,7 +13706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" t="s">
         <v>1084</v>
       </c>
@@ -13722,7 +13724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" t="s">
         <v>1086</v>
       </c>
@@ -13740,7 +13742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" t="s">
         <v>1088</v>
       </c>
@@ -13755,7 +13757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" t="s">
         <v>1090</v>
       </c>
@@ -13770,7 +13772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" t="s">
         <v>1092</v>
       </c>
@@ -13785,7 +13787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" t="s">
         <v>1094</v>
       </c>
@@ -13803,7 +13805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" t="s">
         <v>1096</v>
       </c>
@@ -13818,7 +13820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" t="s">
         <v>1098</v>
       </c>
@@ -13833,7 +13835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" t="s">
         <v>1100</v>
       </c>
@@ -13851,7 +13853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" t="s">
         <v>1102</v>
       </c>
@@ -13866,7 +13868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" t="s">
         <v>1104</v>
       </c>
@@ -13881,7 +13883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" t="s">
         <v>1106</v>
       </c>
@@ -13899,7 +13901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" t="s">
         <v>1108</v>
       </c>
@@ -13914,7 +13916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" t="s">
         <v>1110</v>
       </c>
@@ -13929,7 +13931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" t="s">
         <v>1112</v>
       </c>
@@ -13944,7 +13946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" t="s">
         <v>1114</v>
       </c>
@@ -13959,7 +13961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" t="s">
         <v>1116</v>
       </c>
@@ -13974,7 +13976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" t="s">
         <v>1118</v>
       </c>
@@ -13989,7 +13991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" t="s">
         <v>1120</v>
       </c>
@@ -14004,7 +14006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" t="s">
         <v>1122</v>
       </c>
@@ -14019,7 +14021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" t="s">
         <v>1124</v>
       </c>
@@ -14034,7 +14036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" t="s">
         <v>1126</v>
       </c>
@@ -14049,7 +14051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" t="s">
         <v>1128</v>
       </c>
@@ -14064,7 +14066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" t="s">
         <v>1130</v>
       </c>
@@ -14079,7 +14081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" t="s">
         <v>1132</v>
       </c>
@@ -14094,7 +14096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" t="s">
         <v>1134</v>
       </c>
@@ -14112,7 +14114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" t="s">
         <v>1136</v>
       </c>
@@ -14127,7 +14129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" t="s">
         <v>1138</v>
       </c>
@@ -14142,7 +14144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" t="s">
         <v>1140</v>
       </c>
@@ -14157,7 +14159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" t="s">
         <v>1142</v>
       </c>
@@ -14172,7 +14174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" t="s">
         <v>1144</v>
       </c>
@@ -14187,7 +14189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" t="s">
         <v>1146</v>
       </c>
@@ -14202,7 +14204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" t="s">
         <v>1148</v>
       </c>
@@ -14217,7 +14219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" t="s">
         <v>1150</v>
       </c>
@@ -14232,7 +14234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" t="s">
         <v>1152</v>
       </c>
@@ -14247,7 +14249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" t="s">
         <v>1154</v>
       </c>
@@ -14265,7 +14267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" t="s">
         <v>1156</v>
       </c>
@@ -14280,7 +14282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" t="s">
         <v>1158</v>
       </c>
@@ -14298,7 +14300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" t="s">
         <v>1160</v>
       </c>
@@ -14313,7 +14315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" t="s">
         <v>1162</v>
       </c>
@@ -14328,7 +14330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" t="s">
         <v>1164</v>
       </c>
@@ -14343,7 +14345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" t="s">
         <v>1166</v>
       </c>
@@ -14358,7 +14360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" t="s">
         <v>1168</v>
       </c>
@@ -14376,7 +14378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" t="s">
         <v>1170</v>
       </c>
@@ -14391,7 +14393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" t="s">
         <v>1172</v>
       </c>
@@ -14409,7 +14411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" t="s">
         <v>1174</v>
       </c>
@@ -14424,7 +14426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" t="s">
         <v>1176</v>
       </c>
@@ -14439,7 +14441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" t="s">
         <v>1178</v>
       </c>
@@ -14454,7 +14456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" t="s">
         <v>1180</v>
       </c>
@@ -14469,7 +14471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" t="s">
         <v>1182</v>
       </c>
@@ -14484,7 +14486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" t="s">
         <v>1184</v>
       </c>
@@ -14499,7 +14501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" t="s">
         <v>1186</v>
       </c>
@@ -14514,7 +14516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" t="s">
         <v>1188</v>
       </c>
@@ -14529,7 +14531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" t="s">
         <v>1190</v>
       </c>
@@ -14544,7 +14546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" t="s">
         <v>1192</v>
       </c>
@@ -14559,7 +14561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" t="s">
         <v>1194</v>
       </c>
@@ -14574,7 +14576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" t="s">
         <v>1196</v>
       </c>
@@ -14589,7 +14591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" t="s">
         <v>1198</v>
       </c>
@@ -14604,7 +14606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" t="s">
         <v>1200</v>
       </c>
@@ -14619,7 +14621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" t="s">
         <v>1202</v>
       </c>
@@ -14637,7 +14639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" t="s">
         <v>1204</v>
       </c>
@@ -14652,7 +14654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" t="s">
         <v>1206</v>
       </c>
@@ -14667,7 +14669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" t="s">
         <v>1208</v>
       </c>
@@ -14682,7 +14684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" t="s">
         <v>1210</v>
       </c>
@@ -14697,7 +14699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" t="s">
         <v>1212</v>
       </c>
@@ -14712,7 +14714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" t="s">
         <v>1214</v>
       </c>
@@ -14727,7 +14729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" t="s">
         <v>1215</v>
       </c>
@@ -14742,7 +14744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" t="s">
         <v>1217</v>
       </c>
@@ -14757,7 +14759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" t="s">
         <v>1219</v>
       </c>
@@ -14772,7 +14774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" t="s">
         <v>1221</v>
       </c>
@@ -14787,7 +14789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" t="s">
         <v>1223</v>
       </c>
@@ -14802,7 +14804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" t="s">
         <v>1225</v>
       </c>
@@ -14817,7 +14819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" t="s">
         <v>1227</v>
       </c>
@@ -14832,7 +14834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" t="s">
         <v>1229</v>
       </c>
@@ -14847,7 +14849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" t="s">
         <v>1231</v>
       </c>
@@ -14862,7 +14864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" t="s">
         <v>1233</v>
       </c>
@@ -14880,7 +14882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" t="s">
         <v>1235</v>
       </c>
@@ -14895,7 +14897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" t="s">
         <v>1237</v>
       </c>
@@ -14910,7 +14912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" t="s">
         <v>1239</v>
       </c>
@@ -14925,7 +14927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" t="s">
         <v>1241</v>
       </c>
@@ -14943,7 +14945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" t="s">
         <v>1243</v>
       </c>
@@ -14958,7 +14960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" t="s">
         <v>1245</v>
       </c>
@@ -14973,7 +14975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" t="s">
         <v>1247</v>
       </c>
@@ -14988,7 +14990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" t="s">
         <v>1249</v>
       </c>
@@ -15003,7 +15005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" t="s">
         <v>1251</v>
       </c>
@@ -15018,7 +15020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" t="s">
         <v>1253</v>
       </c>
@@ -15033,7 +15035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" t="s">
         <v>1255</v>
       </c>
@@ -15048,7 +15050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" t="s">
         <v>1257</v>
       </c>
@@ -15063,7 +15065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" t="s">
         <v>1259</v>
       </c>
@@ -15078,7 +15080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" t="s">
         <v>1261</v>
       </c>
@@ -15093,7 +15095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" t="s">
         <v>1263</v>
       </c>
@@ -15108,7 +15110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" t="s">
         <v>1265</v>
       </c>
@@ -15123,7 +15125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" t="s">
         <v>1267</v>
       </c>
@@ -15138,7 +15140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" t="s">
         <v>1269</v>
       </c>
@@ -15153,7 +15155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" t="s">
         <v>1271</v>
       </c>
@@ -15168,7 +15170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" t="s">
         <v>1273</v>
       </c>
@@ -15183,7 +15185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" t="s">
         <v>1275</v>
       </c>
@@ -15198,7 +15200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" t="s">
         <v>1277</v>
       </c>
@@ -15213,7 +15215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" t="s">
         <v>1279</v>
       </c>
@@ -15228,7 +15230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" t="s">
         <v>1281</v>
       </c>
@@ -15243,7 +15245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" t="s">
         <v>1283</v>
       </c>
@@ -15261,7 +15263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" t="s">
         <v>1285</v>
       </c>
@@ -15276,7 +15278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" t="s">
         <v>1287</v>
       </c>
@@ -15294,7 +15296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" t="s">
         <v>1289</v>
       </c>
@@ -15309,7 +15311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" t="s">
         <v>1291</v>
       </c>
@@ -15324,7 +15326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" t="s">
         <v>1293</v>
       </c>
@@ -15339,7 +15341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" t="s">
         <v>1295</v>
       </c>
@@ -15354,7 +15356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" t="s">
         <v>1297</v>
       </c>
@@ -15369,7 +15371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" t="s">
         <v>1299</v>
       </c>
@@ -15387,7 +15389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" t="s">
         <v>1301</v>
       </c>
@@ -15402,7 +15404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" t="s">
         <v>1303</v>
       </c>
@@ -15417,7 +15419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" t="s">
         <v>1305</v>
       </c>
@@ -15435,7 +15437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" t="s">
         <v>1307</v>
       </c>
@@ -15450,7 +15452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" t="s">
         <v>1309</v>
       </c>
@@ -15465,7 +15467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" t="s">
         <v>1311</v>
       </c>
@@ -15480,7 +15482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" t="s">
         <v>1313</v>
       </c>
@@ -15495,7 +15497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" t="s">
         <v>1315</v>
       </c>
@@ -15510,7 +15512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" t="s">
         <v>1317</v>
       </c>
@@ -15525,7 +15527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" t="s">
         <v>1319</v>
       </c>
@@ -15540,7 +15542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" t="s">
         <v>1321</v>
       </c>
@@ -15555,7 +15557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" t="s">
         <v>1323</v>
       </c>
@@ -15570,7 +15572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" t="s">
         <v>1325</v>
       </c>
@@ -15585,7 +15587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" t="s">
         <v>1327</v>
       </c>
@@ -15600,7 +15602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" t="s">
         <v>1329</v>
       </c>
@@ -15615,7 +15617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" t="s">
         <v>1331</v>
       </c>
@@ -15633,7 +15635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" t="s">
         <v>1333</v>
       </c>
@@ -15651,7 +15653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" t="s">
         <v>1335</v>
       </c>
@@ -15666,7 +15668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" t="s">
         <v>1337</v>
       </c>
@@ -15681,7 +15683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" t="s">
         <v>1339</v>
       </c>
@@ -15699,7 +15701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" t="s">
         <v>1341</v>
       </c>
@@ -15717,7 +15719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" t="s">
         <v>1343</v>
       </c>
@@ -15732,7 +15734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" t="s">
         <v>1345</v>
       </c>
@@ -15747,7 +15749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" t="s">
         <v>1347</v>
       </c>
@@ -15762,7 +15764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" t="s">
         <v>1349</v>
       </c>
@@ -15777,7 +15779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" t="s">
         <v>1351</v>
       </c>
@@ -15792,7 +15794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" t="s">
         <v>1353</v>
       </c>
@@ -15807,7 +15809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" t="s">
         <v>1355</v>
       </c>
@@ -15822,7 +15824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" t="s">
         <v>1357</v>
       </c>
@@ -15837,7 +15839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" t="s">
         <v>1359</v>
       </c>
@@ -15852,7 +15854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" t="s">
         <v>1361</v>
       </c>
@@ -15867,7 +15869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" t="s">
         <v>1363</v>
       </c>
@@ -15882,7 +15884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" t="s">
         <v>1365</v>
       </c>
@@ -15897,7 +15899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" t="s">
         <v>1367</v>
       </c>
@@ -15912,7 +15914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" t="s">
         <v>1369</v>
       </c>
@@ -15927,7 +15929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" t="s">
         <v>1371</v>
       </c>
@@ -15942,7 +15944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" t="s">
         <v>1373</v>
       </c>
@@ -15957,7 +15959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" t="s">
         <v>1375</v>
       </c>
@@ -15972,7 +15974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" t="s">
         <v>1377</v>
       </c>
@@ -15987,7 +15989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" t="s">
         <v>1379</v>
       </c>
@@ -16005,7 +16007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" t="s">
         <v>1381</v>
       </c>
@@ -16020,7 +16022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" t="s">
         <v>1383</v>
       </c>
@@ -16035,7 +16037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" t="s">
         <v>1385</v>
       </c>
@@ -16050,7 +16052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" t="s">
         <v>1387</v>
       </c>
@@ -16065,7 +16067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" t="s">
         <v>1389</v>
       </c>
@@ -16080,7 +16082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" t="s">
         <v>1391</v>
       </c>
@@ -16095,7 +16097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" t="s">
         <v>1393</v>
       </c>
@@ -16110,7 +16112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" t="s">
         <v>1395</v>
       </c>
@@ -16128,7 +16130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" t="s">
         <v>1397</v>
       </c>
@@ -16143,7 +16145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" t="s">
         <v>1399</v>
       </c>
@@ -16158,7 +16160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" t="s">
         <v>1401</v>
       </c>
@@ -16173,7 +16175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" t="s">
         <v>1403</v>
       </c>
@@ -16188,7 +16190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" t="s">
         <v>1405</v>
       </c>
@@ -16206,7 +16208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" t="s">
         <v>1407</v>
       </c>
@@ -16221,7 +16223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" t="s">
         <v>1409</v>
       </c>
@@ -16236,7 +16238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" t="s">
         <v>1411</v>
       </c>
@@ -16251,7 +16253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" t="s">
         <v>1413</v>
       </c>
@@ -16266,7 +16268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" t="s">
         <v>1415</v>
       </c>
@@ -16281,7 +16283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" t="s">
         <v>1417</v>
       </c>
@@ -16299,7 +16301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" t="s">
         <v>1419</v>
       </c>
@@ -16317,7 +16319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" t="s">
         <v>1421</v>
       </c>
@@ -16332,7 +16334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" t="s">
         <v>1423</v>
       </c>
@@ -16347,7 +16349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" t="s">
         <v>1425</v>
       </c>
@@ -16362,7 +16364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" t="s">
         <v>1427</v>
       </c>
@@ -16377,7 +16379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" t="s">
         <v>1429</v>
       </c>
@@ -16395,7 +16397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" t="s">
         <v>1431</v>
       </c>
@@ -16410,7 +16412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" t="s">
         <v>1433</v>
       </c>
@@ -16425,7 +16427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" t="s">
         <v>1435</v>
       </c>
@@ -16440,7 +16442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" t="s">
         <v>1436</v>
       </c>
@@ -16455,7 +16457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" t="s">
         <v>1438</v>
       </c>
@@ -16470,7 +16472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" t="s">
         <v>1439</v>
       </c>
@@ -16485,7 +16487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" t="s">
         <v>1441</v>
       </c>
@@ -16500,7 +16502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" t="s">
         <v>1443</v>
       </c>
@@ -16515,7 +16517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" t="s">
         <v>1445</v>
       </c>
@@ -16530,7 +16532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" t="s">
         <v>1447</v>
       </c>
@@ -16545,7 +16547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" t="s">
         <v>1449</v>
       </c>
@@ -16560,7 +16562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" t="s">
         <v>1451</v>
       </c>
@@ -16575,7 +16577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" t="s">
         <v>1453</v>
       </c>
@@ -16590,7 +16592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" t="s">
         <v>1455</v>
       </c>
@@ -16605,7 +16607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" t="s">
         <v>1457</v>
       </c>
@@ -16620,7 +16622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" t="s">
         <v>1458</v>
       </c>
@@ -16635,7 +16637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" t="s">
         <v>1460</v>
       </c>
@@ -16653,7 +16655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" t="s">
         <v>1462</v>
       </c>
@@ -16671,7 +16673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" t="s">
         <v>1464</v>
       </c>
@@ -16686,7 +16688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" t="s">
         <v>1465</v>
       </c>
@@ -16701,7 +16703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" t="s">
         <v>1466</v>
       </c>
@@ -16716,7 +16718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" t="s">
         <v>1468</v>
       </c>
@@ -16731,7 +16733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" t="s">
         <v>1470</v>
       </c>
@@ -16746,7 +16748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" t="s">
         <v>1472</v>
       </c>
@@ -16761,7 +16763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" t="s">
         <v>1474</v>
       </c>
@@ -16776,7 +16778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" t="s">
         <v>1476</v>
       </c>
@@ -16791,7 +16793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" t="s">
         <v>1478</v>
       </c>
@@ -16806,7 +16808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" t="s">
         <v>1480</v>
       </c>
@@ -16824,7 +16826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" t="s">
         <v>1482</v>
       </c>
@@ -16839,7 +16841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" t="s">
         <v>1484</v>
       </c>
@@ -16857,7 +16859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" t="s">
         <v>1486</v>
       </c>
@@ -16872,7 +16874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" t="s">
         <v>1488</v>
       </c>
@@ -16887,7 +16889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" t="s">
         <v>1490</v>
       </c>
@@ -16902,7 +16904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" t="s">
         <v>1492</v>
       </c>
@@ -16917,7 +16919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" t="s">
         <v>1494</v>
       </c>
@@ -16932,7 +16934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" t="s">
         <v>1496</v>
       </c>
@@ -16947,7 +16949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" t="s">
         <v>1498</v>
       </c>
@@ -16965,7 +16967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" t="s">
         <v>1500</v>
       </c>
@@ -16980,7 +16982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" t="s">
         <v>1502</v>
       </c>
@@ -16998,7 +17000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" t="s">
         <v>1504</v>
       </c>
@@ -17013,7 +17015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" t="s">
         <v>1506</v>
       </c>
@@ -17028,7 +17030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" t="s">
         <v>1508</v>
       </c>
@@ -17043,7 +17045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" t="s">
         <v>1510</v>
       </c>
@@ -17058,7 +17060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" t="s">
         <v>1512</v>
       </c>
@@ -17073,7 +17075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" t="s">
         <v>1514</v>
       </c>
@@ -17088,7 +17090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" t="s">
         <v>1516</v>
       </c>
@@ -17103,7 +17105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" t="s">
         <v>1518</v>
       </c>
@@ -17118,7 +17120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" t="s">
         <v>1520</v>
       </c>
@@ -17133,7 +17135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A766" t="s">
         <v>1522</v>
       </c>
@@ -17148,7 +17150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A767" t="s">
         <v>1524</v>
       </c>
@@ -17166,7 +17168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A768" t="s">
         <v>1526</v>
       </c>
@@ -17181,7 +17183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A769" t="s">
         <v>1528</v>
       </c>
@@ -17196,7 +17198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A770" t="s">
         <v>1530</v>
       </c>
@@ -17211,7 +17213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A771" t="s">
         <v>1532</v>
       </c>
@@ -17226,7 +17228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A772" t="s">
         <v>1534</v>
       </c>
@@ -17244,7 +17246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A773" t="s">
         <v>1536</v>
       </c>
@@ -17259,7 +17261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A774" t="s">
         <v>1538</v>
       </c>
@@ -17277,7 +17279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A775" t="s">
         <v>1540</v>
       </c>
@@ -17295,7 +17297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A776" t="s">
         <v>1542</v>
       </c>
@@ -17310,7 +17312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A777" t="s">
         <v>1544</v>
       </c>
@@ -17325,7 +17327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A778" t="s">
         <v>1546</v>
       </c>
@@ -17343,7 +17345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A779" t="s">
         <v>1548</v>
       </c>
@@ -17361,7 +17363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A780" t="s">
         <v>1550</v>
       </c>
@@ -17376,7 +17378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A781" t="s">
         <v>1552</v>
       </c>
@@ -17394,7 +17396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A782" t="s">
         <v>1554</v>
       </c>
@@ -17409,7 +17411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A783" t="s">
         <v>1556</v>
       </c>
@@ -17424,7 +17426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A784" t="s">
         <v>1558</v>
       </c>
@@ -17439,7 +17441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A785" t="s">
         <v>1560</v>
       </c>
@@ -17454,7 +17456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A786" t="s">
         <v>1562</v>
       </c>
@@ -17472,7 +17474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A787" t="s">
         <v>1564</v>
       </c>
@@ -17487,7 +17489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A788" t="s">
         <v>1566</v>
       </c>
@@ -17502,7 +17504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A789" t="s">
         <v>1568</v>
       </c>
@@ -17517,7 +17519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A790" t="s">
         <v>1569</v>
       </c>
@@ -17535,7 +17537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A791" t="s">
         <v>1571</v>
       </c>
@@ -17550,7 +17552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A792" t="s">
         <v>1573</v>
       </c>
@@ -17565,7 +17567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A793" t="s">
         <v>1575</v>
       </c>
@@ -17580,7 +17582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A794" t="s">
         <v>1577</v>
       </c>
@@ -17595,7 +17597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A795" t="s">
         <v>1579</v>
       </c>
@@ -17610,7 +17612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A796" t="s">
         <v>1581</v>
       </c>
@@ -17625,7 +17627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A797" t="s">
         <v>1582</v>
       </c>
@@ -17640,7 +17642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A798" t="s">
         <v>1584</v>
       </c>
@@ -17655,7 +17657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A799" t="s">
         <v>1586</v>
       </c>
@@ -17670,7 +17672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A800" t="s">
         <v>1588</v>
       </c>
@@ -17685,7 +17687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A801" t="s">
         <v>1590</v>
       </c>
@@ -17703,7 +17705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A802" t="s">
         <v>1592</v>
       </c>
@@ -17718,7 +17720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A803" t="s">
         <v>1594</v>
       </c>
@@ -17733,7 +17735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A804" t="s">
         <v>1596</v>
       </c>
@@ -17748,7 +17750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A805" t="s">
         <v>1598</v>
       </c>
@@ -17763,7 +17765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A806" t="s">
         <v>1600</v>
       </c>
@@ -17778,7 +17780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A807" t="s">
         <v>1602</v>
       </c>
@@ -17793,7 +17795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A808" t="s">
         <v>1604</v>
       </c>
@@ -17811,7 +17813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A809" t="s">
         <v>1606</v>
       </c>
@@ -17826,7 +17828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A810" t="s">
         <v>1608</v>
       </c>
@@ -17841,7 +17843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A811" t="s">
         <v>1610</v>
       </c>
@@ -17856,7 +17858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A812" t="s">
         <v>1612</v>
       </c>
@@ -17871,7 +17873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A813" t="s">
         <v>1614</v>
       </c>
@@ -17886,7 +17888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A814" t="s">
         <v>1616</v>
       </c>
@@ -17901,7 +17903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A815" t="s">
         <v>1618</v>
       </c>
@@ -17916,7 +17918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A816" t="s">
         <v>1620</v>
       </c>
@@ -17931,7 +17933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A817" t="s">
         <v>1622</v>
       </c>
@@ -17946,7 +17948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A818" t="s">
         <v>1624</v>
       </c>
@@ -17961,7 +17963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A819" t="s">
         <v>1626</v>
       </c>
@@ -17976,7 +17978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A820" t="s">
         <v>1628</v>
       </c>
@@ -17991,7 +17993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A821" t="s">
         <v>1630</v>
       </c>
@@ -18007,16 +18009,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E821" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E821" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
